--- a/DMSNewVSale_2025-10-10_19-19.xlsx
+++ b/DMSNewVSale_2025-10-10_19-19.xlsx
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>12.8700</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
   </si>
   <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
@@ -2304,14 +2310,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2327,7 +2333,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2337,14 +2343,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2353,14 +2359,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2370,11 +2376,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2386,14 +2392,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2403,11 +2409,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>15</v>
@@ -2419,14 +2425,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2465,15 +2471,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>37</v>
@@ -2485,14 +2491,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2518,14 +2524,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2535,14 +2541,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2551,14 +2557,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2568,14 +2574,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2584,14 +2590,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2601,11 +2607,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>37</v>
@@ -2617,14 +2623,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2634,11 +2640,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>37</v>
@@ -2650,14 +2656,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2667,14 +2673,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,7 +2689,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2700,14 +2706,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2716,7 +2722,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2733,14 +2739,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>164</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2749,14 +2755,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2766,14 +2772,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,14 +2788,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2822,7 +2828,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2855,7 +2861,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2865,14 +2871,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2881,7 +2887,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2898,14 +2904,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2914,14 +2920,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>164</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2947,14 +2953,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2964,51 +2970,84 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>34</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>90</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>149</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="61" ht="26.25" customHeight="1">
-      <c r="N61" s="13">
-        <v>2589</v>
-      </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>181</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>182</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+    <row r="62" ht="26.25" customHeight="1">
+      <c r="N62" s="13">
+        <v>2612</v>
+      </c>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
         <v>183</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>184</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>185</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3287,10 +3326,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
